--- a/reports/test_report.xlsx
+++ b/reports/test_report.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="H1 Tag Existence" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HTML Tag Sequence Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Image Alt Attribute Test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="URL Status Test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Currency Filter Test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +429,59 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>H1 Tag Existence</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>H1 tag exists</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -436,7 +493,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>testcase</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,7 +510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H1 Tag Existence</t>
+          <t>h1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,31 +520,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>H1 tag exists</t>
+          <t>h1 is present</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HTML Tag Sequence Test</t>
+          <t>h2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Missing tags: h5, h6</t>
+          <t>h2 is present</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Image Alt Attribute Test</t>
+          <t>h3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +554,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>All images have 'alt' attributes.</t>
+          <t>h3 is present</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>URL Status Test</t>
+          <t>h4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,41 +571,5998 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All URLs are valid.</t>
+          <t>h4 is present</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Currency Filter Test</t>
+          <t>h5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All currency options validated successfully.</t>
+          <t>h5 is missing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Script Data Extraction Test</t>
+          <t>h6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SiteURL: https://www.alojamiento.io; CampaignID: ALOJAMIENTO; SiteName: alo; Browser: Chrome; Country: BD; IP: 119.148.25.49</t>
+          <t>h6 is missing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/header_logo.svg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alojamiento.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/close.svg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cerca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/header_logo.svg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alojamiento.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/close.svg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cerca</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/header_logo.svg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alojamiento.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/powered-by-google.webp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/travelai.svg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>travelai</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/680x408/apartamentos-centro-col%c3%b3n-es-madrid-bc-189483-0.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Justicia Apartamento | Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/500x325/apartamentos-centro-col%c3%b3n-es-madrid-bc-189483-1.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Justicia Apartamento | Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/500x325/apartamentos-centro-col%c3%b3n-es-madrid-bc-189483-2.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Justicia Apartamento | Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/500x325/apartamentos-centro-col%c3%b3n-es-madrid-bc-189483-3.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Justicia Apartamento | Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/500x325/apartamentos-centro-col%c3%b3n-es-madrid-bc-189483-4.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Justicia Apartamento | Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/apartamentos-centro-col%C3%B3n-es-madrid-bc-189483-0.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Apartamentos Centro Colón</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/luxury-apartment-heart-o-es-madrid-ha-6156815498-0.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Luxury Apartment Heart Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/infantas-piso-at-justicia-es-madrid-bc-10244095-0.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Infantas Piso at Justicia Barrio</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/gran-v%C3%ADa-2bd-sunny-priva-es-madrid-ha-6116948778-0.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gran Vía con una terraza soleada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-fuencarral-5-bdrms-es-madrid-bc-12091357-0.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chueca Fuencarral - 5 Bdrms 5 Baths 12 pax</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-along-gran-via-br-es-madrid-ha-6156923934-0.jpg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chueca along Gran Vía. Bright and with views.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/plaza-cibeles-gran-viacolo-es-madrid-bc-12840745-0.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Plaza Cibeles Gran ViaColon</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/madrid-city-center-cozy-es-madrid-ha-6156557057-0.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Madrid centro ciudad, coqueto estudio para dos personas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-11696591-0.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/argensola-center-tempora-es-madrid-ha-6158787924-0.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Charming Argensola Center - Magnífica Terraza</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/10-plaza-de-pedro-zerolo-es-madrid-bc-4798366-0.jpg</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10 Plaza de Pedro Zerolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/the-secret-palace-es-madrid-bc-11971039-0.jpg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The SECRET PALACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/1-bedroom-1-bathroom-furnis-es-madrid-bc-6732258-0.jpg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1 bedroom 1 bathroom furnished - Justicia - Incredible views - MintyStay</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-11793458-0.jpg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/apartamentos-libertad-24-es-madrid-bc-10045967-0.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Apartamentos Libertad 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-10261738-0.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-10238227-0.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/ever-house-el-corazon-de-ch-es-madrid-bc-7405841-0.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ever House - El CORAZON de CHUECA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-11389192-0.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-hortaleza-12pax-5-b-es-madrid-bc-11723827-0.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chueca Hortaleza 12Pax 5 Bedrooms 5 Baths</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/one-bedroom-apartment-in-ch-es-madrid-bc-5309144-0.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>One bedroom apartment in Chueca</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/hostal-delfina-es-madrid-bc-690497-0.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hostal Delfina</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/chueca-gran-via-recoletos-es-madrid-bc-10597603-0.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Chueca Gran Via Recoletos Libertad 24 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://imgservice.alojamiento.io/640x417/beautiful-apartment-in-chu-es-madrid-bc-10239029-0.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Beautiful apartment in Chueca, center of Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home0.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Casa ecológica en Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home1.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ofertas por debajo de Hotala™ 149/semana</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home2.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bueno para parejas.  Libro Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home3.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Casa de estilo único en Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home4.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Quédate en el corazón de Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/demo/home5.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Descuento exclusivo para Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Booking.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/sites/alojamiento.io/logo_footer.svg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Alojamiento.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/booking.svg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>booking</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/kayak.svg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>kayak</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/expedia_v2.svg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>expedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/vrbo.svg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vrbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://static.alojamiento.io/release/28.0.0/static/images/paw.svg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>petfirendly</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C265"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://x.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Status Code: 403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/staystravel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Status Code: 301</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/place-to-stay</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/near-me?all=true</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/addalisting</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/about-us</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/faq</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/hotels</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/resorts</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/vacation-rentals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/cabins</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/cottages</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/ski-chalets</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia/villas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/apartamentos-centro-col%c3%b3n/BC-189483</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/luxury-apartment-heart-madrid/HA-6156815498</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/infantas-piso-at-justicia-barrio/BC-10244095</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/gran-v%c3%ada-con-una-terraza-soleada/HA-6116948778</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-fuencarral-5-bdrms-5-baths-12-pax/BC-12091357</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-along-gran-via-bright-and-with-views/HA-6156923934</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/plaza-cibeles-gran-viacolon/BC-12840745</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/madrid-centro-ciudad-coqueto-estudio-para-dos-personas/HA-6156557057</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-9/BC-11696591</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-argensola-center-magn%c3%adfica-terraza/HA-6158787924</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/10-plaza-de-pedro-zerolo/BC-4798366</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/the-secret-palace/BC-11971039</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/1-bedroom-1-bathroom-furnished-justicia-incredible-views-mintystay/BC-6732258</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-3/BC-11793458</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/apartamentos-libertad-24/BC-10045967</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-12/BC-10261738</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-8/BC-10238227</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/ever-house-el-corazon-de-chueca/BC-7405841</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-5/BC-11389192</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-hortaleza-12pax-5-bedrooms-5-baths/BC-11723827</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/one-bedroom-apartment-in-chueca/BC-5309144</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/hostal-delfina/BC-690497</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-gran-via-recoletos-libertad-24-2/BC-10597603</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/beautiful-apartment-in-chueca-center-of-madrid/BC-10239029</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/chueca</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/refine?search=Justicia%2c%20Madrid%2c%20Community%20of%20Madrid%2c%20Spain</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/justicia</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/apartamentos-centro-col%c3%b3n/BC-189483</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/luxury-apartment-heart-madrid/HA-6156815498</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/infantas-piso-at-justicia-barrio/BC-10244095</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/gran-v%c3%ada-con-una-terraza-soleada/HA-6116948778</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/chueca-fuencarral-5-bdrms-5-baths-12-pax/BC-12091357</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/addalisting</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/about-us</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/faq</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/cantabria</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/galicia</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/malaga</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/navarre</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/gran-canaria</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/tenerife</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/usa/wyoming/basin</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/castile-and-leon</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/murcia</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/valencia-province</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/switzerland</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/costa-brava</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/italy</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/france</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/morocco</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/andorra</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/greece</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/cancun</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/dominican-republic/la-altagracia/punta-cana</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/playa-del-carmen</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/puerto-rico/san-juan</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/cuba/province-of-havana</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/jalisco/puerto-vallarta</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/baja-california-sur/cabo-san-lucas</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/southeast-region/rio-de-janeiro</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/buenos-aires</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/tulum</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/medellin</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/bolivar/cartagena</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/peru/lima</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/chile/santiago-metropolitan/santiago</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/costa-rica/san-jose</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/uruguay/montevideo</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/panama/panama/panama-city</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/south-region/florianopolis</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/ecuador/pichincha/quito</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/guatemala/sacatepequez/antigua-guatemala</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/northeast-region/salvador</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/peru/cusco/cusco</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/honduras/bay-islands/roatan</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/bolivia/la-paz</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/ecuador/galapagos</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/guanajuato/san-miguel-de-allende</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/mendoza</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/magdalena/santa-marta</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/belize/belize-district/belize-city</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/rio-negro/san-carlos-de-bariloche</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://x.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Status Code: 403</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/staystravel</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Status Code: 301</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/privacy-policy</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-terms</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-map</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.travelai.com/</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Status Code: 405</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/privacy-policy#site-cookie-policy</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.petfriendly.io/</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.onedegreeleft.com/</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-terms</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: 
+</t>
         </is>
       </c>
     </row>

--- a/reports/test_report.xlsx
+++ b/reports/test_report.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="H1 Tag Existence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="HTML Tag Sequence Test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Image Alt Attribute Test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="URL Status Test" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Currency Filter Test" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="HTML Tag Sequence Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Image Alt Attribute Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="URL Status Test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Currency Filter Test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Script Data Extraction Test" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="H1 Tag Existence" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,59 +430,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>H1 Tag Existence</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>H1 tag exists</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -614,7 +562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +1643,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Casa ecológica en Madrid</t>
+          <t>Desbloquee el mejor precio en Madrid</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1677,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ofertas por debajo de Hotala™ 149/semana</t>
+          <t>Gran oferta para esta noche</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1711,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bueno para parejas.  Libro Madrid</t>
+          <t>Descuento exclusivo para Madrid</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1745,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Casa de estilo único en Madrid</t>
+          <t>Tarifas calientes hoy.  Madrid Descuentos</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1779,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Quédate en el corazón de Madrid</t>
+          <t>Bueno para las familias.  Libro Madrid</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1813,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Descuento exclusivo para Madrid</t>
+          <t>Villa de lujo a partir de Hotala™ 55</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +2366,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2486,7 +2434,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2503,7 +2451,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-189483&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-BC-189483&amp;published=true&amp;dest_id=189483&amp;hero=BC-189483&amp;owner_id=189483&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2023-09-07T06%3A40%3A54.945897%2B00%3A00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2520,7 +2468,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2588,7 +2536,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2605,7 +2553,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156815498&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-HA-6156815498&amp;published=true&amp;dest_id=18772446&amp;hero=BC-189483&amp;owner_id=18772446&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-27T12%3A58%3A25.212854%2B00%3A00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2622,7 +2570,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2690,7 +2638,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2707,7 +2655,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10244095&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-BC-10244095&amp;published=true&amp;dest_id=10244095&amp;hero=BC-189483&amp;owner_id=10244095&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A20%3A22.500884%2B00%3A00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2724,7 +2672,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2792,7 +2740,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2809,7 +2757,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6116948778&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-HA-6116948778&amp;published=true&amp;dest_id=18772116&amp;hero=BC-189483&amp;owner_id=18772116&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-12-04T09%3A56%3A47.681908%2B00%3A00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2826,7 +2774,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2894,7 +2842,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2911,7 +2859,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12091357&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-BC-12091357&amp;published=true&amp;dest_id=12091357&amp;hero=BC-189483&amp;owner_id=12091357&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-30T04%3A41%3A52.792404%2B00%3A00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2928,7 +2876,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2996,7 +2944,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3013,7 +2961,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156923934&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-HA-6156923934&amp;published=true&amp;dest_id=18977141&amp;hero=BC-189483&amp;owner_id=18977141&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;epc=c999&amp;upat=2024-11-22T08%3A25%3A11.355906%2B00%3A00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3030,7 +2978,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3098,7 +3046,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3115,7 +3063,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12840745&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=6-BC-12840745&amp;published=true&amp;dest_id=12840745&amp;hero=BC-189483&amp;owner_id=12840745&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-02T07%3A54%3A57.220817%2B00%3A00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3132,7 +3080,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3200,7 +3148,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3217,7 +3165,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6156557057&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=7-HA-6156557057&amp;published=true&amp;dest_id=30666775&amp;hero=BC-189483&amp;owner_id=30666775&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-11-16T18%3A08%3A09.190473%2B00%3A00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3234,7 +3182,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3302,7 +3250,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3319,7 +3267,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11696591&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=8-BC-11696591&amp;published=true&amp;dest_id=11696591&amp;hero=BC-189483&amp;owner_id=11696591&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T00%3A24%3A26.662445%2B00%3A00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3336,7 +3284,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3404,7 +3352,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3421,7 +3369,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-6158787924&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=9-HA-6158787924&amp;published=true&amp;dest_id=51322528&amp;hero=BC-189483&amp;owner_id=51322528&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;epc=c999&amp;upat=2024-12-04T14%3A41%3A42.106824%2B00%3A00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3438,7 +3386,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3506,7 +3454,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3523,7 +3471,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4798366&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=10-BC-4798366&amp;published=true&amp;dest_id=4798366&amp;hero=BC-189483&amp;owner_id=4798366&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-08-02T09%3A03%3A39.929774%2B00%3A00</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3540,7 +3488,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3608,7 +3556,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3625,7 +3573,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11971039&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=11-BC-11971039&amp;published=true&amp;dest_id=11971039&amp;hero=BC-189483&amp;owner_id=11971039&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-29T17%3A01%3A30.066639%2B00%3A00</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3642,7 +3590,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3710,7 +3658,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3727,7 +3675,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6732258&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=12-BC-6732258&amp;published=true&amp;dest_id=6732258&amp;hero=BC-189483&amp;owner_id=6732258&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-11-22T17%3A28%3A35.830550%2B00%3A00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3744,7 +3692,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3812,7 +3760,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3829,7 +3777,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11793458&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=13-BC-11793458&amp;published=true&amp;dest_id=11793458&amp;hero=BC-189483&amp;owner_id=11793458&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-06T04%3A18%3A39.986668%2B00%3A00</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3846,7 +3794,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3914,7 +3862,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3931,7 +3879,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10045967&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=14-BC-10045967&amp;published=true&amp;dest_id=10045967&amp;hero=BC-189483&amp;owner_id=10045967&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-08T05%3A22%3A25.405442%2B00%3A00</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3948,7 +3896,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4016,7 +3964,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4033,7 +3981,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10261738&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=15-BC-10261738&amp;published=true&amp;dest_id=10261738&amp;hero=BC-189483&amp;owner_id=10261738&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-20T17%3A57%3A46.499119%2B00%3A00</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4050,7 +3998,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4118,7 +4066,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4135,7 +4083,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10238227&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=16-BC-10238227&amp;published=true&amp;dest_id=10238227&amp;hero=BC-189483&amp;owner_id=10238227&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-16T13%3A55%3A22.145391%2B00%3A00</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4152,7 +4100,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4220,7 +4168,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4237,7 +4185,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7405841&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=17-BC-7405841&amp;published=true&amp;dest_id=7405841&amp;hero=BC-189483&amp;owner_id=7405841&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T09%3A34%3A42.249727%2B00%3A00</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4254,7 +4202,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4322,7 +4270,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4339,7 +4287,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11389192&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=18-BC-11389192&amp;published=true&amp;dest_id=11389192&amp;hero=BC-189483&amp;owner_id=11389192&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-07-05T14%3A17%3A54.967391%2B00%3A00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4356,7 +4304,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4424,7 +4372,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4441,7 +4389,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-11723827&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=19-BC-11723827&amp;published=true&amp;dest_id=11723827&amp;hero=BC-189483&amp;owner_id=11723827&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-04T05%3A37%3A10.876905%2B00%3A00</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4458,7 +4406,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4526,7 +4474,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4543,7 +4491,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5309144&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=20-BC-5309144&amp;published=true&amp;dest_id=5309144&amp;hero=BC-189483&amp;owner_id=5309144&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-12-01T19%3A04%3A06.713249%2B00%3A00</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4560,7 +4508,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4628,7 +4576,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4645,7 +4593,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-690497&amp;guests=2&amp;search_string=Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=21-BC-690497&amp;published=true&amp;dest_id=690497&amp;hero=BC-189483&amp;owner_id=690497&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-12-05T05%3A38%3A26.726420%2B00%3A00</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4662,7 +4610,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4730,7 +4678,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4747,7 +4695,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10597603&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=22-BC-10597603&amp;published=true&amp;dest_id=10597603&amp;hero=BC-189483&amp;owner_id=10597603&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007&amp;upat=2024-07-17T08%3A41%3A46.217812%2B00%3A00</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4764,7 +4712,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4832,7 +4780,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4849,7 +4797,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-10239029&amp;guests=2&amp;search_string=Chueca,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=23-BC-10239029&amp;published=true&amp;dest_id=10239029&amp;hero=BC-189483&amp;owner_id=10239029&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=6053455&amp;upat=2024-11-26T10%3A14%3A36.430528%2B00%3A00</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4866,7 +4814,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4883,7 +4831,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4900,7 +4848,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder1&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=0-placeholder1&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4917,7 +4865,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4934,7 +4882,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4951,7 +4899,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder2&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=1-placeholder2&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4968,7 +4916,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4985,7 +4933,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5002,7 +4950,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder3&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=2-placeholder3&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5019,7 +4967,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5036,7 +4984,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5053,7 +5001,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder4&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=3-placeholder4&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5070,7 +5018,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5087,7 +5035,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5104,7 +5052,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder5&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=4-placeholder5&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5121,7 +5069,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5138,7 +5086,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5155,7 +5103,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733832290831&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=placeholder6&amp;guests=2&amp;search_string=Justicia,%20Madrid,%20Community%20of%20Madrid,%20Spain&amp;referrer_page=hybrid&amp;menu_id=1733890987713&amp;referral_id=5-placeholder6&amp;hero=BC-189483&amp;order=upsort_bh&amp;sqs=hybrid-default&amp;property_country=ES&amp;at=End-of-Result%20Ad&amp;eplId=553248635976399007</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6509,6 +6457,178 @@
       <c r="C265" t="inlineStr">
         <is>
           <t>Status Code: 200</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>$ US</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Currency $ US validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>$ CA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Currency $ CA validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>€ BE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Currency € BE validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>£ IE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Currency £ IE validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>$ AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Currency $ AU validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>$ SG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Currency $ SG validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>د.إ. AE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Currency د.إ. AE validated successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>৳ BD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Currency ৳ BD validated successfully.</t>
         </is>
       </c>
     </row>
@@ -6518,6 +6638,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SiteURL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CampaignID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SiteName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALOJAMIENTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Firefox</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>182.160.106.203</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6534,7 +6737,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -6544,25 +6747,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>comments</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>H1 Tag Existence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: 
-</t>
+          <t>H1 tag exists</t>
         </is>
       </c>
     </row>
